--- a/KYJ/honey_stick/data/frequency_excel/workerbee_noun_frequency.xlsx
+++ b/KYJ/honey_stick/data/frequency_excel/workerbee_noun_frequency.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT550-048\Desktop\doeat\doeat2023\KYJ\honey_stick\data\wokerbee_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT550-048\Desktop\doeat\doeat2023\KYJ\honey_stick\data\frequency_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1922,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="E447" sqref="E447"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/KYJ/honey_stick/data/frequency_excel/workerbee_noun_frequency.xlsx
+++ b/KYJ/honey_stick/data/frequency_excel/workerbee_noun_frequency.xlsx
@@ -1571,7 +1571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1581,6 +1581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,12 +1618,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1922,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2028,7 +2035,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -2942,7 +2949,7 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C92">
@@ -3404,7 +3411,7 @@
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C134">
@@ -3888,7 +3895,7 @@
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C178">
@@ -4075,7 +4082,7 @@
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C195">
@@ -5010,7 +5017,7 @@
       <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="3" t="s">
         <v>279</v>
       </c>
       <c r="C280">
@@ -5934,7 +5941,7 @@
       <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="3" t="s">
         <v>363</v>
       </c>
       <c r="C364">
@@ -6066,7 +6073,7 @@
       <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="3" t="s">
         <v>375</v>
       </c>
       <c r="C376">
@@ -6242,7 +6249,7 @@
       <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C392">
